--- a/AAII_Financials/Yearly/FB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FB_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2179,7 +2179,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12804000</v>
+        <v>12749000</v>
       </c>
       <c r="E59" s="3">
         <v>5656000</v>
@@ -2278,7 +2278,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>418000</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2311,7 +2311,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>17269000</v>
+        <v>16851000</v>
       </c>
       <c r="E62" s="3">
         <v>6190000</v>

--- a/AAII_Financials/Yearly/FB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FB_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>FB</t>
   </si>
@@ -1852,25 +1852,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>86000</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2759000</v>
+        <v>2673000</v>
       </c>
       <c r="E52" s="3">
         <v>2576000</v>

--- a/AAII_Financials/Yearly/FB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FB_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>FB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,167 @@
     <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>85965000</v>
+      </c>
+      <c r="E8" s="3">
         <v>70697000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>55838000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>40653000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>27638000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>17928000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12466000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7872000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5089000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3711000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>16692000</v>
+      </c>
+      <c r="E9" s="3">
         <v>12770000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9355000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5454000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3789000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2867000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2153000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1875000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1364000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>860000</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>69273000</v>
+      </c>
+      <c r="E10" s="3">
         <v>57927000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>46483000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>35199000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>23849000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>15061000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>10313000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5997000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3725000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2851000</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,41 +839,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>18447000</v>
+      </c>
+      <c r="E12" s="3">
         <v>13600000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>10273000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7754000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5919000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4816000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2666000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1415000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1399000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>388000</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,17 +908,20 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="3">
         <v>5000000</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>24</v>
@@ -919,15 +938,18 @@
       <c r="J14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -958,9 +980,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -971,74 +996,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>53294000</v>
+      </c>
+      <c r="E17" s="3">
         <v>46711000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>30925000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>20450000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15211000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11703000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7472000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5068000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4551000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1955000</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>32671000</v>
+      </c>
+      <c r="E18" s="3">
         <v>23986000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>24913000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>20203000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>12427000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>6225000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4994000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2804000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>538000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1756000</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1052,173 +1084,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>509000</v>
+      </c>
+      <c r="E20" s="3">
         <v>846000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>457000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>397000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>101000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-8000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-61000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>6000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-19000</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>40042000</v>
+      </c>
+      <c r="E21" s="3">
         <v>30573000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>29685000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>23625000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>14870000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>8162000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6176000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3821000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1194000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2060000</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="3">
         <v>20000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>9000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>6000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>10000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>23000</v>
       </c>
       <c r="I22" s="3">
         <v>23000</v>
       </c>
       <c r="J22" s="3">
+        <v>23000</v>
+      </c>
+      <c r="K22" s="3">
         <v>56000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>51000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>42000</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>33180000</v>
+      </c>
+      <c r="E23" s="3">
         <v>24812000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>25361000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>20594000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>12518000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6194000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4910000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2754000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>494000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1695000</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>4034000</v>
+      </c>
+      <c r="E24" s="3">
         <v>6327000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3249000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2387000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2301000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2506000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1970000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1254000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>441000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>695000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1249,75 +1297,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>29146000</v>
+      </c>
+      <c r="E26" s="3">
         <v>18485000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>22112000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>18207000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>10217000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3688000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2940000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1500000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>53000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1000000</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>29146000</v>
+      </c>
+      <c r="E27" s="3">
         <v>18485000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>22111000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>18193000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>10188000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3669000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2925000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1491000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>32000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>668000</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1348,9 +1405,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1360,11 +1420,11 @@
       <c r="E29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="3">
         <v>-2273000</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>24</v>
@@ -1381,9 +1441,12 @@
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1414,9 +1477,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1447,75 +1513,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-509000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-846000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-457000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-397000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-101000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>8000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>61000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-6000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>19000</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>29146000</v>
+      </c>
+      <c r="E33" s="3">
         <v>18485000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>22111000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>15920000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>10188000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3669000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2925000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1491000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>32000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>668000</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1546,80 +1621,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>29146000</v>
+      </c>
+      <c r="E35" s="3">
         <v>18485000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>22111000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>15920000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>10188000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3669000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2925000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1491000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>32000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>668000</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1633,8 +1717,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1648,107 +1733,117 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17576000</v>
+      </c>
+      <c r="E41" s="3">
         <v>19079000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10019000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8079000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8903000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4907000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4315000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3323000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2384000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1512000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>44378000</v>
+      </c>
+      <c r="E42" s="3">
         <v>35776000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>31095000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>33632000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>20546000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>13527000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>6884000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>8126000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>7242000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2396000</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11335000</v>
+      </c>
+      <c r="E43" s="3">
         <v>9518000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7587000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5832000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3993000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2559000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1678000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1160000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1170000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>547000</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1779,83 +1874,92 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2381000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1852000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1779000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1020000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>959000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>659000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>513000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>512000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>471000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>149000</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>75670000</v>
+      </c>
+      <c r="E46" s="3">
         <v>66225000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>50480000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>48563000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>34401000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>21652000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>13390000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>13070000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11267000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4604000</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6234000</v>
+      </c>
+      <c r="E47" s="3">
         <v>86000</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>24</v>
@@ -1872,81 +1976,90 @@
       <c r="J47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>54981000</v>
+      </c>
+      <c r="E48" s="3">
         <v>44783000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>24683000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13721000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8591000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5687000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3967000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2882000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2391000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1475000</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>19673000</v>
+      </c>
+      <c r="E49" s="3">
         <v>19609000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>19595000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>20105000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>20657000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>21272000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>21910000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1722000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1388000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>162000</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1977,9 +2090,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2010,42 +2126,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2758000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2673000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2576000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2135000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1312000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>796000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>699000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>221000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>57000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>90000</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2076,42 +2198,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>159316000</v>
+      </c>
+      <c r="E54" s="3">
         <v>133376000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>97334000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>84524000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>64961000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>49407000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>39966000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>17895000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15103000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6331000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2125,8 +2253,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2140,149 +2269,162 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2424000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2249000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1361000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>770000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>582000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>413000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>378000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>268000</v>
-      </c>
-      <c r="K57" s="3">
-        <v>234000</v>
       </c>
       <c r="L57" s="3">
         <v>234000</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>234000</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E58" s="3">
         <v>55000</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>208000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>114000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>239000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>365000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>279000</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12503000</v>
+      </c>
+      <c r="E59" s="3">
         <v>12749000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5656000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2990000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2293000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1304000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1798000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>593000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>453000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>682000</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14981000</v>
+      </c>
+      <c r="E60" s="3">
         <v>15053000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7017000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3760000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2875000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1925000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1424000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1100000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1052000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>899000</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>469000</v>
+      </c>
+      <c r="E61" s="3">
         <v>418000</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2290,56 +2432,62 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>107000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>119000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>237000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1991000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>398000</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15576000</v>
+      </c>
+      <c r="E62" s="3">
         <v>16851000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6190000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6417000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2892000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3157000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4872000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1088000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>305000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>135000</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2370,9 +2518,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2403,9 +2554,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2436,42 +2590,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>31026000</v>
+      </c>
+      <c r="E66" s="3">
         <v>32322000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13207000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10177000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5767000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5189000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3870000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2425000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3348000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1432000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2485,8 +2645,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2517,9 +2678,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2550,9 +2714,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,11 +2748,14 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>615000</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2616,42 +2786,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>77345000</v>
+      </c>
+      <c r="E72" s="3">
         <v>55692000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>41981000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>33990000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>21670000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>9787000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6099000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3159000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1659000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1606000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2682,9 +2858,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2715,9 +2894,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2748,42 +2930,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>128290000</v>
+      </c>
+      <c r="E76" s="3">
         <v>101054000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>84127000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>74347000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>59194000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>44218000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>36096000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>15470000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11755000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4284000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2814,80 +3002,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>29146000</v>
+      </c>
+      <c r="E81" s="3">
         <v>18485000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>22111000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>15920000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>10188000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3669000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2925000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1491000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>32000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>668000</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2901,41 +3098,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6862000</v>
+      </c>
+      <c r="E83" s="3">
         <v>5741000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4315000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3025000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2342000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1945000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1243000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1011000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>649000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>323000</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2966,9 +3167,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2999,9 +3203,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3032,9 +3239,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3065,9 +3275,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3098,42 +3311,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>38747000</v>
+      </c>
+      <c r="E89" s="3">
         <v>36314000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>29274000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>24216000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>16108000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>10320000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7326000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4222000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1612000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1549000</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3147,41 +3366,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-15115000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-15102000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-13915000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6733000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4491000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2523000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1831000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1362000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1235000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-606000</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3212,9 +3435,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3245,42 +3471,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-30059000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-19864000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-11603000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-20118000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11792000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-9434000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5913000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2624000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7024000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3023000</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3294,8 +3526,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3326,9 +3559,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3359,9 +3595,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3392,9 +3631,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3425,106 +3667,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-10292000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7299000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-15572000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5235000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-310000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-139000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-298000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-667000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6283000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1198000</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>279000</v>
+      </c>
+      <c r="E101" s="3">
         <v>4000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-179000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>232000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-63000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-155000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-123000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>8000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3000</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1325000</v>
+      </c>
+      <c r="E102" s="3">
         <v>9155000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1920000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-905000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3943000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>592000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>992000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>939000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>872000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-273000</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/FB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FB_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>FB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,179 @@
     <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>117929000</v>
+      </c>
+      <c r="E8" s="3">
         <v>85965000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>70697000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>55838000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>40653000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>27638000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>17928000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12466000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7872000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5089000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3711000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>22649000</v>
+      </c>
+      <c r="E9" s="3">
         <v>16692000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12770000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9355000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5454000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3789000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2867000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2153000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1875000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1364000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>860000</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>95280000</v>
+      </c>
+      <c r="E10" s="3">
         <v>69273000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>57927000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>46483000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>35199000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>23849000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>15061000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>10313000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5997000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3725000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2851000</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,44 +852,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>24655000</v>
+      </c>
+      <c r="E12" s="3">
         <v>18447000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>13600000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>10273000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7754000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5919000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4816000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2666000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1415000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1399000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>388000</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -911,20 +927,23 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3">
         <v>5000000</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>24</v>
@@ -941,15 +960,18 @@
       <c r="K14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -983,9 +1005,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -997,80 +1022,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>71176000</v>
+      </c>
+      <c r="E17" s="3">
         <v>53294000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>46711000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>30925000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>20450000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15211000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11703000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7472000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5068000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4551000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1955000</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>46753000</v>
+      </c>
+      <c r="E18" s="3">
         <v>32671000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>23986000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>24913000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>20203000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>12427000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6225000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4994000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2804000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>538000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1756000</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1085,188 +1117,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>531000</v>
+      </c>
+      <c r="E20" s="3">
         <v>509000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>846000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>457000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>397000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>101000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-8000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-61000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-19000</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>55251000</v>
+      </c>
+      <c r="E21" s="3">
         <v>40042000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>30573000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>29685000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>23625000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>14870000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>8162000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6176000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3821000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1194000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2060000</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="3">
         <v>20000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>9000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>10000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>23000</v>
       </c>
       <c r="J22" s="3">
         <v>23000</v>
       </c>
       <c r="K22" s="3">
+        <v>23000</v>
+      </c>
+      <c r="L22" s="3">
         <v>56000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>51000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>42000</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>47284000</v>
+      </c>
+      <c r="E23" s="3">
         <v>33180000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>24812000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>25361000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>20594000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>12518000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6194000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4910000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2754000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>494000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1695000</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>7914000</v>
+      </c>
+      <c r="E24" s="3">
         <v>4034000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6327000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3249000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2387000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2301000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2506000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1970000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1254000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>441000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>695000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,81 +1348,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>39370000</v>
+      </c>
+      <c r="E26" s="3">
         <v>29146000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>18485000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>22112000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>18207000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>10217000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3688000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2940000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1500000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>53000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1000000</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>39370000</v>
+      </c>
+      <c r="E27" s="3">
         <v>29146000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>18485000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>22111000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>18193000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>10188000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3669000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2925000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1491000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>32000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>668000</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1408,9 +1465,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1423,11 +1483,11 @@
       <c r="F29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="3">
         <v>-2273000</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>24</v>
@@ -1444,9 +1504,12 @@
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1480,9 +1543,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1516,81 +1582,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-531000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-509000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-846000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-457000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-397000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-101000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>8000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>61000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>19000</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>39370000</v>
+      </c>
+      <c r="E33" s="3">
         <v>29146000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>18485000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>22111000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>15920000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>10188000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3669000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2925000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1491000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>32000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>668000</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1624,86 +1699,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>39370000</v>
+      </c>
+      <c r="E35" s="3">
         <v>29146000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>18485000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>22111000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>15920000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>10188000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3669000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2925000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1491000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>32000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>668000</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1718,8 +1802,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1734,116 +1819,126 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16601000</v>
+      </c>
+      <c r="E41" s="3">
         <v>17576000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>19079000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10019000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8079000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8903000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4907000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4315000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3323000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2384000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1512000</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>31397000</v>
+      </c>
+      <c r="E42" s="3">
         <v>44378000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>35776000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>31095000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>33632000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>20546000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>13527000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>6884000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>8126000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>7242000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2396000</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>14039000</v>
+      </c>
+      <c r="E43" s="3">
         <v>11335000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9518000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7587000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5832000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3993000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2559000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1678000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1160000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1170000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>547000</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1877,92 +1972,101 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4629000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2381000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1852000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1779000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1020000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>959000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>659000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>513000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>512000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>471000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>149000</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>66666000</v>
+      </c>
+      <c r="E46" s="3">
         <v>75670000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>66225000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>50480000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>48563000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>34401000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>21652000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>13390000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13070000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11267000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4604000</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6775000</v>
+      </c>
+      <c r="E47" s="3">
         <v>6234000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>86000</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>24</v>
@@ -1979,87 +2083,96 @@
       <c r="K47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>69964000</v>
+      </c>
+      <c r="E48" s="3">
         <v>54981000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>44783000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>24683000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13721000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8591000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5687000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3967000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2882000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2391000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1475000</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>19831000</v>
+      </c>
+      <c r="E49" s="3">
         <v>19673000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>19609000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>19595000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>20105000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>20657000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>21272000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>21910000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1722000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1388000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>162000</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2093,9 +2206,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2129,45 +2245,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2751000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2758000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2673000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2576000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2135000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1312000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>796000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>699000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>221000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>57000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>90000</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2201,45 +2323,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>165987000</v>
+      </c>
+      <c r="E54" s="3">
         <v>159316000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>133376000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>97334000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>84524000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>64961000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>49407000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>39966000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17895000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15103000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6331000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2254,8 +2382,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2270,164 +2399,177 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5135000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2424000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2249000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1361000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>770000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>582000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>413000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>378000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>268000</v>
-      </c>
-      <c r="L57" s="3">
-        <v>234000</v>
       </c>
       <c r="M57" s="3">
         <v>234000</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>234000</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E58" s="3">
         <v>54000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>55000</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3" t="s">
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>208000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>114000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>239000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>365000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>279000</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15925000</v>
+      </c>
+      <c r="E59" s="3">
         <v>12503000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12749000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5656000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2990000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2293000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1304000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1798000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>593000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>453000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>682000</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>21135000</v>
+      </c>
+      <c r="E60" s="3">
         <v>14981000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15053000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7017000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3760000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2875000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1925000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1424000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1100000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1052000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>899000</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>506000</v>
+      </c>
+      <c r="E61" s="3">
         <v>469000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>418000</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2435,59 +2577,65 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>107000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>119000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>237000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1991000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>398000</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19467000</v>
+      </c>
+      <c r="E62" s="3">
         <v>15576000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>16851000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6190000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>6417000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2892000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3157000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4872000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1088000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>305000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>135000</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2521,9 +2669,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2557,9 +2708,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2593,45 +2747,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>41108000</v>
+      </c>
+      <c r="E66" s="3">
         <v>31026000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>32322000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13207000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10177000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5767000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5189000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3870000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2425000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3348000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1432000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2646,8 +2806,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2681,9 +2842,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2717,9 +2881,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,11 +2918,14 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>615000</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2789,45 +2959,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>69761000</v>
+      </c>
+      <c r="E72" s="3">
         <v>77345000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>55692000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>41981000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>33990000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>21670000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>9787000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6099000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3159000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1659000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1606000</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2861,9 +3037,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2897,9 +3076,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2933,45 +3115,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>124879000</v>
+      </c>
+      <c r="E76" s="3">
         <v>128290000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>101054000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>84127000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>74347000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>59194000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>44218000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>36096000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15470000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11755000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4284000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3005,86 +3193,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>39370000</v>
+      </c>
+      <c r="E81" s="3">
         <v>29146000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>18485000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>22111000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>15920000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>10188000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3669000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2925000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1491000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>32000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>668000</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3099,44 +3296,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7967000</v>
+      </c>
+      <c r="E83" s="3">
         <v>6862000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5741000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4315000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3025000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2342000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1945000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1243000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1011000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>649000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>323000</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3170,9 +3371,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3206,9 +3410,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3242,9 +3449,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3278,9 +3488,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3314,45 +3527,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>57683000</v>
+      </c>
+      <c r="E89" s="3">
         <v>38747000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>36314000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>29274000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>24216000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>16108000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>10320000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7326000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4222000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1612000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1549000</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3367,44 +3586,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-18567000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-15115000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-15102000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13915000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6733000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4491000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2523000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1831000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1362000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1235000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-606000</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3438,9 +3661,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3474,45 +3700,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7570000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-30059000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-19864000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11603000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-20118000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-11792000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-9434000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5913000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2624000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7024000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3023000</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3527,8 +3759,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3562,9 +3795,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3598,9 +3834,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3634,9 +3873,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3670,115 +3912,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-50728000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-10292000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-7299000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-15572000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5235000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-310000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-139000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-298000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-667000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>6283000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1198000</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-474000</v>
+      </c>
+      <c r="E101" s="3">
         <v>279000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>4000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-179000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>232000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-63000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-155000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-123000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>8000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3000</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1089000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1325000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>9155000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1920000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-905000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3943000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>592000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>992000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>939000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>872000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-273000</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
